--- a/data/output/cpev_for_colab.xlsx
+++ b/data/output/cpev_for_colab.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="568">
   <si>
     <t xml:space="preserve">Kommun</t>
   </si>
   <si>
     <t xml:space="preserve">CPEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022_y</t>
   </si>
   <si>
     <t xml:space="preserve">Ale</t>
@@ -1753,9 +1759,8 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1834,10 +1839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,16 +1854,28 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,10 +1883,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1555</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,10 +1900,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>589</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,10 +1917,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,10 +1934,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,10 +1951,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,10 +1968,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,10 +1985,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,10 +2002,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,10 +2019,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>717</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,10 +2036,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,10 +2053,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,10 +2070,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,10 +2087,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,10 +2104,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>549</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,10 +2121,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,10 +2138,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>540</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,10 +2155,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,10 +2172,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1595</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,10 +2189,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4406</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,10 +2206,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2030</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,10 +2223,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,10 +2240,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,10 +2257,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,10 +2274,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,10 +2291,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>717</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,10 +2308,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,10 +2325,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>4636</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,10 +2342,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,10 +2359,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,10 +2376,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,10 +2393,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1440</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,10 +2410,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>417</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,10 +2427,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,10 +2444,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1566</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,10 +2461,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>3279</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +2478,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>903</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,10 +2495,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,10 +2512,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,10 +2529,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1446</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,10 +2546,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>838</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,10 +2563,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2066</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,10 +2580,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,10 +2597,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>471</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,10 +2614,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,10 +2631,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,10 +2648,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2665,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,10 +2682,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1034</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,10 +2699,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,10 +2716,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>436</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,10 +2733,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1671</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,10 +2750,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2767,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,10 +2784,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,10 +2801,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2818,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2920</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,10 +2835,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>23982</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,10 +2852,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,10 +2869,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2886,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,10 +2903,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2920,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>425</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,10 +2937,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>3602</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,10 +2954,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>742</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2971,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,10 +2988,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,10 +3005,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +3022,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,10 +3039,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>623</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>5418</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +3056,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,10 +3073,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,10 +3090,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +3107,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>3798</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +3124,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1066</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,10 +3141,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,10 +3158,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,10 +3175,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,10 +3192,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,10 +3209,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>613</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,10 +3226,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1839</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,10 +3243,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1246</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,10 +3260,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1244</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,10 +3277,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +3294,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,10 +3311,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,10 +3328,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>484</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +3345,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,10 +3362,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>2919</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,10 +3379,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>5434</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,10 +3396,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,10 +3413,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>2248</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +3430,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,10 +3447,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,10 +3464,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>797</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,10 +3481,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>2064</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,10 +3498,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>3180</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,10 +3515,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>948</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,10 +3532,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,10 +3549,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +3566,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +3583,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,10 +3600,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>930</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,10 +3617,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,10 +3634,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>2824</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,10 +3651,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>642</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,10 +3668,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,10 +3685,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,10 +3702,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>5397</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,10 +3719,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,10 +3736,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>2262</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,10 +3753,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1535</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,10 +3770,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>581</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,10 +3787,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3804,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1139</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,10 +3821,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,10 +3838,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,10 +3855,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,10 +3872,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>2193</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,10 +3889,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,10 +3906,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>2465</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,10 +3923,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1640</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,10 +3940,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>487</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3957,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,10 +3974,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>427</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>6746</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3991,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>804</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,10 +4008,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,10 +4025,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +4042,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1229</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,10 +4059,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>577</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,10 +4076,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>2394</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +4093,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>557</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>13305</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,10 +4110,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,10 +4127,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>596</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,10 +4144,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>13498</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,10 +4161,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,10 +4178,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,10 +4195,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>787</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,10 +4212,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +4229,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,10 +4246,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,10 +4263,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,10 +4280,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>531</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,10 +4297,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>1343</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,10 +4314,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,10 +4331,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,10 +4348,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,10 +4365,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>5210</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,10 +4382,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,10 +4399,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>463</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,10 +4416,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>12136</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,10 +4433,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,10 +4450,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,10 +4467,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,10 +4484,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,10 +4501,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>4254</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,10 +4518,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2009</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,10 +4535,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,10 +4552,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,10 +4569,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,10 +4586,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>1771</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,10 +4603,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>819</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,10 +4620,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3648,10 +4637,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,10 +4654,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,10 +4671,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,10 +4688,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>558</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,10 +4705,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,10 +4722,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>571</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,10 +4739,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,10 +4756,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,10 +4773,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,10 +4790,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1599</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,10 +4807,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,10 +4824,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>1277</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,10 +4841,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,10 +4858,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,10 +4875,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,10 +4892,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>681</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,10 +4909,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,10 +4926,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>511</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,10 +4943,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>537</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,10 +4960,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>767</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,10 +4977,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1993</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +4994,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>558</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,10 +5011,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>474</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,10 +5028,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>523</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,10 +5045,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>2263</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,10 +5062,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,10 +5079,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,10 +5096,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>2397</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,10 +5113,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,10 +5130,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,10 +5147,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>7932</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,10 +5164,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>12205</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,10 +5181,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,10 +5198,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,10 +5215,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>941</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,10 +5232,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1238</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,10 +5249,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>3013</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>81637</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,10 +5266,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,10 +5283,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4077,10 +5300,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>1364</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,10 +5317,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>532</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,10 +5334,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,10 +5351,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>2307</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,10 +5368,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>3013</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,10 +5385,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,10 +5402,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,10 +5419,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,10 +5436,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>776</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,10 +5453,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,10 +5470,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,10 +5487,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,10 +5504,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,10 +5521,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,10 +5538,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,10 +5555,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>8018</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,10 +5572,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>481</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,10 +5589,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>407</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,10 +5606,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,10 +5623,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,10 +5640,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>438</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,10 +5657,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>458</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4319,10 +5674,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,10 +5691,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>644</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,10 +5708,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,10 +5725,16 @@
         <v>228</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,10 +5742,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,10 +5759,16 @@
         <v>230</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,10 +5776,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>526</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,10 +5793,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>1314</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,10 +5810,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>2358</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,10 +5827,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>586</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,10 +5844,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>1915</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,10 +5861,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>4293</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,10 +5878,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,10 +5895,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>2922</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,10 +5912,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>801</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,10 +5929,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>4225</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,10 +5946,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>1732</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,10 +5963,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>973</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +5980,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>7698</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,10 +5997,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +6014,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,10 +6031,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>452</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,10 +6048,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,10 +6065,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>1691</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,10 +6082,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,10 +6099,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>575</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,10 +6116,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>2703</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,10 +6133,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>681</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,10 +6150,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>2248</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,10 +6167,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>910</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4649,10 +6184,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,10 +6201,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>415</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4671,10 +6218,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,10 +6235,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,10 +6252,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,10 +6269,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,10 +6286,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>2467</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,10 +6303,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>1431</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,10 +6320,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>788</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,10 +6337,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>5724</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,10 +6354,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>3363</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,10 +6371,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,10 +6388,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,10 +6405,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>1045</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,10 +6422,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>595</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,10 +6439,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +6456,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,10 +6473,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +6490,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>1593</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,10 +6507,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,10 +6524,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,10 +6541,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,10 +6558,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,10 +6575,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,10 +6592,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,10 +6609,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,10 +6626,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,10 +6643,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,10 +6660,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>4926</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,10 +6677,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +6694,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>1343</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,10 +6711,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>1860</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,10 +6728,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>2553</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,10 +6745,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,10 +6762,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,10 +6779,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,16 +6796,22 @@
         <v>291</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
